--- a/risultato/FASCIA B - ARANCIOVERDE-VERDE.xlsx
+++ b/risultato/FASCIA B - ARANCIOVERDE-VERDE.xlsx
@@ -574,21 +574,21 @@
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="6" t="n">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="B4" s="7" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE RESANA ASD</t>
+          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
         </is>
       </c>
       <c r="C4" s="7" t="inlineStr">
         <is>
-          <t>TREVISAN</t>
+          <t>TESSARO</t>
         </is>
       </c>
       <c r="D4" s="7" t="inlineStr">
         <is>
-          <t>DIEGO</t>
+          <t xml:space="preserve"> VITTORIO</t>
         </is>
       </c>
       <c r="E4" s="7" t="inlineStr"/>
@@ -601,21 +601,21 @@
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="10" t="n">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
+          <t>SCUOLA KARATE RESANA ASD</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>TESSARO</t>
+          <t>ZAMPIERI</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VITTORIO</t>
+          <t>FRANCESCO</t>
         </is>
       </c>
       <c r="E5" s="11" t="inlineStr"/>
@@ -628,7 +628,7 @@
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="6" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B6" s="7" t="inlineStr">
         <is>
@@ -637,12 +637,12 @@
       </c>
       <c r="C6" s="7" t="inlineStr">
         <is>
-          <t>SPANIO</t>
+          <t>TREVISAN</t>
         </is>
       </c>
       <c r="D6" s="7" t="inlineStr">
         <is>
-          <t>NICOLE</t>
+          <t>DIEGO</t>
         </is>
       </c>
       <c r="E6" s="7" t="inlineStr"/>
@@ -682,7 +682,7 @@
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="6" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
@@ -691,12 +691,12 @@
       </c>
       <c r="C8" s="7" t="inlineStr">
         <is>
-          <t>ZAMPIERI</t>
+          <t>SPANIO</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
-          <t>FRANCESCO</t>
+          <t>NICOLE</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr"/>

--- a/risultato/FASCIA B - ARANCIOVERDE-VERDE.xlsx
+++ b/risultato/FASCIA B - ARANCIOVERDE-VERDE.xlsx
@@ -129,7 +129,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,21 +574,21 @@
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="6" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B4" s="7" t="inlineStr">
         <is>
-          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
+          <t>SCUOLA KARATE CASTELFRANCO</t>
         </is>
       </c>
       <c r="C4" s="7" t="inlineStr">
         <is>
-          <t>TESSARO</t>
+          <t>TENAN</t>
         </is>
       </c>
       <c r="D4" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VITTORIO</t>
+          <t>NICOLÒ</t>
         </is>
       </c>
       <c r="E4" s="7" t="inlineStr"/>
@@ -601,7 +601,7 @@
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="10" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
@@ -610,12 +610,12 @@
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>ZAMPIERI</t>
+          <t>TREVISAN</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr">
         <is>
-          <t>FRANCESCO</t>
+          <t>DIEGO</t>
         </is>
       </c>
       <c r="E5" s="11" t="inlineStr"/>
@@ -628,7 +628,7 @@
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="6" t="n">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B6" s="7" t="inlineStr">
         <is>
@@ -637,12 +637,12 @@
       </c>
       <c r="C6" s="7" t="inlineStr">
         <is>
-          <t>TREVISAN</t>
+          <t>SPANIO</t>
         </is>
       </c>
       <c r="D6" s="7" t="inlineStr">
         <is>
-          <t>DIEGO</t>
+          <t>NICOLE</t>
         </is>
       </c>
       <c r="E6" s="7" t="inlineStr"/>
@@ -655,21 +655,21 @@
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="10" t="n">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE RESANA ASD</t>
+          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
         </is>
       </c>
       <c r="C7" s="11" t="inlineStr">
         <is>
-          <t>MUNARETTO</t>
+          <t>TESSARO</t>
         </is>
       </c>
       <c r="D7" s="11" t="inlineStr">
         <is>
-          <t>MATTEO</t>
+          <t xml:space="preserve"> VITTORIO</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr"/>
@@ -682,7 +682,7 @@
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="6" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
@@ -691,12 +691,12 @@
       </c>
       <c r="C8" s="7" t="inlineStr">
         <is>
-          <t>SPANIO</t>
+          <t>ZAMPIERI</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
-          <t>NICOLE</t>
+          <t>FRANCESCO</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr"/>
@@ -705,7 +705,34 @@
       <c r="H8" s="8" t="inlineStr"/>
       <c r="I8" s="8" t="inlineStr"/>
       <c r="J8" s="8" t="inlineStr"/>
-      <c r="K8" s="14" t="inlineStr"/>
+      <c r="K8" s="9" t="inlineStr"/>
+    </row>
+    <row r="9" ht="30" customHeight="1">
+      <c r="A9" s="10" t="n">
+        <v>66</v>
+      </c>
+      <c r="B9" s="11" t="inlineStr">
+        <is>
+          <t>SCUOLA KARATE RESANA ASD</t>
+        </is>
+      </c>
+      <c r="C9" s="11" t="inlineStr">
+        <is>
+          <t>MUNARETTO</t>
+        </is>
+      </c>
+      <c r="D9" s="11" t="inlineStr">
+        <is>
+          <t>MATTEO</t>
+        </is>
+      </c>
+      <c r="E9" s="11" t="inlineStr"/>
+      <c r="F9" s="12" t="inlineStr"/>
+      <c r="G9" s="12" t="inlineStr"/>
+      <c r="H9" s="12" t="inlineStr"/>
+      <c r="I9" s="12" t="inlineStr"/>
+      <c r="J9" s="12" t="inlineStr"/>
+      <c r="K9" s="14" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/risultato/FASCIA B - ARANCIOVERDE-VERDE.xlsx
+++ b/risultato/FASCIA B - ARANCIOVERDE-VERDE.xlsx
@@ -574,21 +574,21 @@
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="6" t="n">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="B4" s="7" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE CASTELFRANCO</t>
+          <t>SCUOLA KARATE RESANA ASD</t>
         </is>
       </c>
       <c r="C4" s="7" t="inlineStr">
         <is>
-          <t>TENAN</t>
+          <t>ZAMPIERI</t>
         </is>
       </c>
       <c r="D4" s="7" t="inlineStr">
         <is>
-          <t>NICOLÒ</t>
+          <t>FRANCESCO</t>
         </is>
       </c>
       <c r="E4" s="7" t="inlineStr"/>
@@ -601,21 +601,21 @@
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="10" t="n">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE RESANA ASD</t>
+          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>TREVISAN</t>
+          <t>TESSARO</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr">
         <is>
-          <t>DIEGO</t>
+          <t xml:space="preserve"> VITTORIO</t>
         </is>
       </c>
       <c r="E5" s="11" t="inlineStr"/>
@@ -628,21 +628,21 @@
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="6" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="B6" s="7" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE RESANA ASD</t>
+          <t>SCUOLA KARATE CASTELFRANCO</t>
         </is>
       </c>
       <c r="C6" s="7" t="inlineStr">
         <is>
-          <t>SPANIO</t>
+          <t>TENAN</t>
         </is>
       </c>
       <c r="D6" s="7" t="inlineStr">
         <is>
-          <t>NICOLE</t>
+          <t>NICOLÒ</t>
         </is>
       </c>
       <c r="E6" s="7" t="inlineStr"/>
@@ -655,21 +655,21 @@
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="10" t="n">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
+          <t>SCUOLA KARATE RESANA ASD</t>
         </is>
       </c>
       <c r="C7" s="11" t="inlineStr">
         <is>
-          <t>TESSARO</t>
+          <t>SPANIO</t>
         </is>
       </c>
       <c r="D7" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VITTORIO</t>
+          <t>NICOLE</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr"/>
@@ -691,12 +691,12 @@
       </c>
       <c r="C8" s="7" t="inlineStr">
         <is>
-          <t>ZAMPIERI</t>
+          <t>TREVISAN</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
-          <t>FRANCESCO</t>
+          <t>DIEGO</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr"/>
@@ -709,7 +709,7 @@
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="10" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B9" s="11" t="inlineStr">
         <is>
